--- a/VQC R work/Albuwell Data Sheets/Creatinine_Sample_061825.xlsx
+++ b/VQC R work/Albuwell Data Sheets/Creatinine_Sample_061825.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoriaqc/Documents/GitHub/PFAS_met_cage/VQC R work/Albuwell Data Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F697853-61C6-844A-AE21-6F737D565FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC3603A-8851-4746-96D7-606FB0D82EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="14800" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="29160" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,36 +101,24 @@
     <t>B1</t>
   </si>
   <si>
-    <t>20 Base</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>20 Final</t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>21 Base</t>
-  </si>
-  <si>
     <t>B6</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>21 Final</t>
-  </si>
-  <si>
     <t>B8</t>
   </si>
   <si>
@@ -149,36 +137,24 @@
     <t>C1</t>
   </si>
   <si>
-    <t>22 Base</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>22 Final</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>23 Base</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>23 Final</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
@@ -197,36 +173,24 @@
     <t>D1</t>
   </si>
   <si>
-    <t>32 Base</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>32 Final</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>33 Base</t>
-  </si>
-  <si>
     <t>D6</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>33 Final</t>
-  </si>
-  <si>
     <t>D8</t>
   </si>
   <si>
@@ -245,36 +209,24 @@
     <t>E1</t>
   </si>
   <si>
-    <t>34 Base</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>34 Final</t>
-  </si>
-  <si>
     <t>E4</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>35 Base</t>
-  </si>
-  <si>
     <t>E6</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>35 Final</t>
-  </si>
-  <si>
     <t>E8</t>
   </si>
   <si>
@@ -293,36 +245,24 @@
     <t>F1</t>
   </si>
   <si>
-    <t>36 Base</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>36 Final</t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>37 Base</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>37 Final</t>
-  </si>
-  <si>
     <t>F8</t>
   </si>
   <si>
@@ -341,36 +281,24 @@
     <t>G1</t>
   </si>
   <si>
-    <t>38 Base</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>38 Final</t>
-  </si>
-  <si>
     <t>G4</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>39 Base</t>
-  </si>
-  <si>
     <t>G6</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>39 Final</t>
-  </si>
-  <si>
     <t>G8</t>
   </si>
   <si>
@@ -420,13 +348,85 @@
   </si>
   <si>
     <t>H12</t>
+  </si>
+  <si>
+    <t>3920_Base</t>
+  </si>
+  <si>
+    <t>3920_Final</t>
+  </si>
+  <si>
+    <t>3921_Base</t>
+  </si>
+  <si>
+    <t>3921_Final</t>
+  </si>
+  <si>
+    <t>3922_Base</t>
+  </si>
+  <si>
+    <t>3922_Final</t>
+  </si>
+  <si>
+    <t>3923_Base</t>
+  </si>
+  <si>
+    <t>3923_Final</t>
+  </si>
+  <si>
+    <t>3932_Base</t>
+  </si>
+  <si>
+    <t>3932_Final</t>
+  </si>
+  <si>
+    <t>3933_Base</t>
+  </si>
+  <si>
+    <t>3933_Final</t>
+  </si>
+  <si>
+    <t>3934_Base</t>
+  </si>
+  <si>
+    <t>3934_Final</t>
+  </si>
+  <si>
+    <t>3935_Base</t>
+  </si>
+  <si>
+    <t>3935_Final</t>
+  </si>
+  <si>
+    <t>3936_Base</t>
+  </si>
+  <si>
+    <t>3936_Final</t>
+  </si>
+  <si>
+    <t>3937_Base</t>
+  </si>
+  <si>
+    <t>3937_Final</t>
+  </si>
+  <si>
+    <t>3938_Base</t>
+  </si>
+  <si>
+    <t>3938_Final</t>
+  </si>
+  <si>
+    <t>3939_Base</t>
+  </si>
+  <si>
+    <t>3939_Final</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +440,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -462,9 +470,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,11 +810,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76:I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1012,7 +1024,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1</v>
@@ -1027,10 +1039,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1</v>
@@ -1045,10 +1057,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -1063,10 +1075,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -1081,10 +1093,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -1099,10 +1111,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
@@ -1117,10 +1129,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
@@ -1135,10 +1147,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -1153,7 +1165,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1163,7 +1175,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1173,7 +1185,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1183,7 +1195,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1193,10 +1205,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
@@ -1211,10 +1223,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1</v>
@@ -1229,10 +1241,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
@@ -1247,10 +1259,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
@@ -1265,10 +1277,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
@@ -1283,10 +1295,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
@@ -1301,10 +1313,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1</v>
@@ -1319,10 +1331,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
@@ -1337,7 +1349,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1347,7 +1359,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1357,7 +1369,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1367,7 +1379,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1377,10 +1389,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1</v>
@@ -1395,10 +1407,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1</v>
@@ -1413,10 +1425,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1</v>
@@ -1431,10 +1443,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
@@ -1449,10 +1461,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>1</v>
@@ -1467,10 +1479,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1</v>
@@ -1485,10 +1497,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1</v>
@@ -1503,10 +1515,10 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1</v>
@@ -1521,7 +1533,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1531,7 +1543,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1541,7 +1553,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1551,7 +1563,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -1561,10 +1573,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1</v>
@@ -1579,10 +1591,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>1</v>
@@ -1597,10 +1609,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>1</v>
@@ -1615,10 +1627,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
@@ -1633,10 +1645,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1</v>
@@ -1651,10 +1663,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>1</v>
@@ -1669,10 +1681,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1</v>
@@ -1687,10 +1699,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>1</v>
@@ -1705,7 +1717,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1715,7 +1727,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1725,7 +1737,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1735,7 +1747,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1745,10 +1757,10 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>1</v>
@@ -1763,10 +1775,10 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>1</v>
@@ -1781,10 +1793,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1</v>
@@ -1799,10 +1811,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>1</v>
@@ -1817,10 +1829,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1</v>
@@ -1835,10 +1847,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1</v>
@@ -1853,10 +1865,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1</v>
@@ -1871,10 +1883,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1</v>
@@ -1889,7 +1901,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -1899,7 +1911,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -1909,7 +1921,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -1919,7 +1931,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -1929,10 +1941,10 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1</v>
@@ -1947,10 +1959,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>1</v>
@@ -1965,10 +1977,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>1</v>
@@ -1983,10 +1995,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>1</v>
@@ -2001,10 +2013,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>1</v>
@@ -2019,10 +2031,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>1</v>
@@ -2037,10 +2049,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>1</v>
@@ -2055,10 +2067,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1</v>
@@ -2073,7 +2085,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2083,7 +2095,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2093,7 +2105,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2103,7 +2115,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2113,7 +2125,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2123,7 +2135,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2133,7 +2145,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2143,7 +2155,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2153,7 +2165,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2163,7 +2175,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2173,7 +2185,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2183,7 +2195,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2193,7 +2205,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2203,7 +2215,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2213,7 +2225,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2223,7 +2235,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
